--- a/Biblioteca/G1_Backlog_V5.xlsx
+++ b/Biblioteca/G1_Backlog_V5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/vnguaiguacundo_espe_edu_ec/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9368BFB-987F-4C33-A900-32802C24EAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20718A6-5B9B-4FED-B7D3-A6439C3BDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de versionamiento" sheetId="4" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>El programa deberá tener un reconocimiento de código único para su almacenamiento en la base de datos.</t>
   </si>
   <si>
-    <t>Generar una base de datos con los productos utilizados en la cafetería y tener una gestión del inventario correcta.</t>
+    <t>Generar una lista con los productos utilizados en la cafetería y tener una gestión del inventario correcta.</t>
   </si>
   <si>
     <t>Alta</t>
@@ -131,7 +131,7 @@
     <t>Buscar productos</t>
   </si>
   <si>
-    <t>El programa deberá mostrar la información del producto (Nombre, proveedor, valor, existencias) al ingresar su código único</t>
+    <t>El programa deberá mostrar la información del producto (Nombre, cantidad) al ingresar su código único</t>
   </si>
   <si>
     <t>Facilitar la modificación de los datos de los productos</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Entrada de productos </t>
   </si>
   <si>
-    <t>El programa deberá registrar la entrada y salida de productos, utilizando un codigo unico para cada producto.</t>
+    <t>El programa deberá registrar la entrada y salida de productos, utilizando un código unico para cada producto.</t>
   </si>
   <si>
     <t>Tener un control actualizado de los productos ingresados al inventario</t>
@@ -167,7 +167,7 @@
     <t>Eliminar productos</t>
   </si>
   <si>
-    <t>El programa deberá permitir la eliminación de productos ya no adquiridos.</t>
+    <t>El programa deberá permitir la eliminación de productos ya no adquiridos o terminados.</t>
   </si>
   <si>
     <t>Mantener un registro de los productos ya no adquiridos.</t>
@@ -227,7 +227,7 @@
     <t>REQ001-2</t>
   </si>
   <si>
-    <t>Crear un campo para ingresar el código único, nombre, proveedor, cantidad, precio del producto.</t>
+    <t>Crear un campo para ingresar el código único, nombre, cantidad del producto.</t>
   </si>
   <si>
     <t>REQ001-3</t>
@@ -863,12 +863,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -896,15 +890,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -925,6 +910,21 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1180,9 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999D517A-DA86-4F78-A8D8-F882C216247B}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1198,153 +1196,153 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="4" spans="2:10" ht="14.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:10" ht="15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="55" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="50">
+      <c r="B6" s="39"/>
+      <c r="C6" s="45">
         <v>45645</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52">
+      <c r="D6" s="46"/>
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="50">
+      <c r="B7" s="39"/>
+      <c r="C7" s="45">
         <v>45648</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52">
+      <c r="D7" s="46"/>
+      <c r="E7" s="47">
         <v>2</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B8" s="41"/>
-      <c r="C8" s="50">
+      <c r="B8" s="39"/>
+      <c r="C8" s="45">
         <v>45664</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52">
+      <c r="D8" s="46"/>
+      <c r="E8" s="47">
         <v>3</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="53" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="54" t="s">
+      <c r="H8" s="46"/>
+      <c r="I8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B9" s="41"/>
-      <c r="C9" s="50">
+      <c r="B9" s="39"/>
+      <c r="C9" s="45">
         <v>45666</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47">
         <v>4</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="53" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="54" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="2:10" ht="66.75" customHeight="1">
-      <c r="B10" s="41"/>
-      <c r="C10" s="50">
+      <c r="B10" s="39"/>
+      <c r="C10" s="45">
         <v>45680</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47">
         <v>5</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="53" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="54" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="2:10" ht="14.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1361,13 +1359,11 @@
   </sheetPr>
   <dimension ref="A1:AA179"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10" style="9" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="9" customWidth="1"/>
@@ -1408,16 +1404,16 @@
     </row>
     <row r="2" spans="1:27" ht="35.25" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -1857,8 +1853,8 @@
   </sheetPr>
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15"/>
@@ -1933,7 +1929,7 @@
       </c>
       <c r="F4" s="29" t="str">
         <f>+Backlog!F5</f>
-        <v>Generar una base de datos con los productos utilizados en la cafetería y tener una gestión del inventario correcta.</v>
+        <v>Generar una lista con los productos utilizados en la cafetería y tener una gestión del inventario correcta.</v>
       </c>
       <c r="G4" s="29">
         <f>+Backlog!G5</f>
@@ -2100,7 +2096,7 @@
       </c>
       <c r="E15" s="29" t="str">
         <f>+Backlog!E6</f>
-        <v>El programa deberá mostrar la información del producto (Nombre, proveedor, valor, existencias) al ingresar su código único</v>
+        <v>El programa deberá mostrar la información del producto (Nombre, cantidad) al ingresar su código único</v>
       </c>
       <c r="F15" s="29" t="str">
         <f>+Backlog!F6</f>
@@ -2253,7 +2249,7 @@
       </c>
       <c r="E25" s="29" t="str">
         <f>+Backlog!E7</f>
-        <v>El programa deberá registrar la entrada y salida de productos, utilizando un codigo unico para cada producto.</v>
+        <v>El programa deberá registrar la entrada y salida de productos, utilizando un código unico para cada producto.</v>
       </c>
       <c r="F25" s="29" t="str">
         <f>+Backlog!F7</f>
@@ -2557,7 +2553,7 @@
       </c>
       <c r="E45" s="29" t="str">
         <f>+Backlog!E9</f>
-        <v>El programa deberá permitir la eliminación de productos ya no adquiridos.</v>
+        <v>El programa deberá permitir la eliminación de productos ya no adquiridos o terminados.</v>
       </c>
       <c r="F45" s="29" t="str">
         <f>+Backlog!F9</f>
@@ -3475,12 +3471,12 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="1"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
@@ -3493,12 +3489,12 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="1"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
@@ -3511,12 +3507,12 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="1"/>
       <c r="I32" s="56"/>
       <c r="J32" s="56"/>
@@ -3529,12 +3525,12 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
       <c r="H33" s="1"/>
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
@@ -3547,12 +3543,12 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="1"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -3565,12 +3561,12 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="1"/>
       <c r="I35" s="56"/>
       <c r="J35" s="56"/>
@@ -3583,12 +3579,12 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="1"/>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
@@ -3601,12 +3597,12 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="1"/>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -20961,23 +20957,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="244fc9be-a6af-466c-907c-aa3b3cb488ca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001B6514E6C5C14B4298D86A4F64E0F79F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bbc0358bf515be4e8d6e2b70987b289e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="244fc9be-a6af-466c-907c-aa3b3cb488ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="749f3115b2865d5502f446a0938fcd8f" ns3:_="">
     <xsd:import namespace="244fc9be-a6af-466c-907c-aa3b3cb488ca"/>
@@ -21133,14 +21112,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="244fc9be-a6af-466c-907c-aa3b3cb488ca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8AF6DF-4FC3-4321-A42A-DC4DB2BDBB1B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AEAAED-9742-42B1-A165-CEE95D0C5A34}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C16407C-B7CD-4C55-B5C3-6376A6E678A8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8AF6DF-4FC3-4321-A42A-DC4DB2BDBB1B}"/>
 </file>